--- a/biology/Zoologie/Cinetorhynchus/Cinetorhynchus.xlsx
+++ b/biology/Zoologie/Cinetorhynchus/Cinetorhynchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinetorhynchus est un genre de crevette de la famille des Rhynchocinetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015) :
 Cinetorhynchus brucei Okuno, 2009
 Cinetorhynchus concolor (Okuno, 1994)
 Cinetorhynchus erythrostictus Okuno, 1997
@@ -556,9 +570,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinetorhynchus, du grec ancien κίνησις, kinêsis, « mouvement », et ῥύγχος, rhygkhos, « museau », a été donné en référence à la mobilité du rostre de ces espèces[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinetorhynchus, du grec ancien κίνησις, kinêsis, « mouvement », et ῥύγχος, rhygkhos, « museau », a été donné en référence à la mobilité du rostre de ces espèces. 
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Holthuis, 1995 : Notes on Indo-West Pacific Crustacea Decapoda III to IX. Zoologische Mededelingen, vol. 69, pp. 139-151 (texte intégral) (en).</t>
         </is>
